--- a/Plants Benefits.xlsx
+++ b/Plants Benefits.xlsx
@@ -4353,7 +4353,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
